--- a/src/test/resources/test_data/hrm_data.xlsx
+++ b/src/test/resources/test_data/hrm_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Session\automation_workspace\HealthManagementAutomation\src\test\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -371,7 +380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -383,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,12 +455,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
